--- a/Code/Results/Cases/Case_3_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_127/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.178540189291709</v>
+        <v>1.127984771727</v>
       </c>
       <c r="C2">
-        <v>0.07076248063956747</v>
+        <v>0.04980699389891363</v>
       </c>
       <c r="D2">
-        <v>0.4384427677513258</v>
+        <v>0.2911817816964231</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.892028083270532</v>
+        <v>4.45806596794165</v>
       </c>
       <c r="G2">
-        <v>0.0008444421344919992</v>
+        <v>0.002589902121757248</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8234806014993694</v>
+        <v>0.6010874286359638</v>
       </c>
       <c r="L2">
-        <v>0.3876368376768937</v>
+        <v>0.3091811955591197</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.031299091204119</v>
+        <v>1.105637921368839</v>
       </c>
       <c r="C3">
-        <v>0.06547077082216113</v>
+        <v>0.04817719131482612</v>
       </c>
       <c r="D3">
-        <v>0.4004826648354225</v>
+        <v>0.2788557442090536</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.168382009560816</v>
+        <v>4.243910909428536</v>
       </c>
       <c r="G3">
-        <v>0.0008534169645105587</v>
+        <v>0.002595024083569865</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7094750929551594</v>
+        <v>0.5835867568609387</v>
       </c>
       <c r="L3">
-        <v>0.3414082971271171</v>
+        <v>0.2989295393117857</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9436699021577226</v>
+        <v>1.092958261286469</v>
       </c>
       <c r="C4">
-        <v>0.06227763026302569</v>
+        <v>0.04714379238185806</v>
       </c>
       <c r="D4">
-        <v>0.3774620310662584</v>
+        <v>0.271212546193766</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.731237706226324</v>
+        <v>4.112646583209823</v>
       </c>
       <c r="G4">
-        <v>0.0008590576085486098</v>
+        <v>0.002598330026326999</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6416129425661978</v>
+        <v>0.5735605423628556</v>
       </c>
       <c r="L4">
-        <v>0.3137040797543307</v>
+        <v>0.2928269107341208</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9085836270160996</v>
+        <v>1.088052373903707</v>
       </c>
       <c r="C5">
-        <v>0.0609862493173452</v>
+        <v>0.04671431055510489</v>
       </c>
       <c r="D5">
-        <v>0.3681381115317066</v>
+        <v>0.2680785989382741</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.554635915194098</v>
+        <v>4.05920795327873</v>
       </c>
       <c r="G5">
-        <v>0.0008613909017409469</v>
+        <v>0.00259971786468651</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6144329030021254</v>
+        <v>0.5696548602924736</v>
       </c>
       <c r="L5">
-        <v>0.302565931127134</v>
+        <v>0.2903880932124991</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9027931574896684</v>
+        <v>1.087253509698826</v>
       </c>
       <c r="C6">
-        <v>0.06077229552042596</v>
+        <v>0.04664248614516531</v>
       </c>
       <c r="D6">
-        <v>0.3665929202914242</v>
+        <v>0.2675570321820686</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.525396850127208</v>
+        <v>4.050337555286717</v>
       </c>
       <c r="G6">
-        <v>0.0008617804929041281</v>
+        <v>0.002599950772706876</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.609946587884906</v>
+        <v>0.5690171786308866</v>
       </c>
       <c r="L6">
-        <v>0.3007250642316421</v>
+        <v>0.2899860256921727</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9431942868787644</v>
+        <v>1.092891042187517</v>
       </c>
       <c r="C7">
-        <v>0.06226017965823516</v>
+        <v>0.04713803428897378</v>
       </c>
       <c r="D7">
-        <v>0.3773360728379771</v>
+        <v>0.2711703593208483</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.728850101154762</v>
+        <v>4.111925684085065</v>
       </c>
       <c r="G7">
-        <v>0.0008590889331716589</v>
+        <v>0.002598348578574296</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6412445418237098</v>
+        <v>0.5735071408580978</v>
       </c>
       <c r="L7">
-        <v>0.3135532777587429</v>
+        <v>0.2927938256933658</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.127147589368548</v>
+        <v>1.120063003219741</v>
       </c>
       <c r="C8">
-        <v>0.06892359704606932</v>
+        <v>0.04925173755937351</v>
       </c>
       <c r="D8">
-        <v>0.4252851095201038</v>
+        <v>0.2869470587896075</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.640857160849237</v>
+        <v>4.384175181173532</v>
       </c>
       <c r="G8">
-        <v>0.0008475109069843954</v>
+        <v>0.002591634838933902</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7836878842717283</v>
+        <v>0.5949034281077843</v>
       </c>
       <c r="L8">
-        <v>0.3715437327725795</v>
+        <v>0.305606458545725</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.513713186974712</v>
+        <v>1.181647220773357</v>
       </c>
       <c r="C9">
-        <v>0.08265048872979364</v>
+        <v>0.05314376850875036</v>
       </c>
       <c r="D9">
-        <v>0.5223433366234786</v>
+        <v>0.317310960935842</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.499676204031601</v>
+        <v>4.920097657918774</v>
       </c>
       <c r="G9">
-        <v>0.0008257392037721424</v>
+        <v>0.002579740305245792</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.083180971093697</v>
+        <v>0.6426081858520831</v>
       </c>
       <c r="L9">
-        <v>0.4916444531314141</v>
+        <v>0.3322661313813597</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.819487266158916</v>
+        <v>1.232013018401034</v>
       </c>
       <c r="C10">
-        <v>0.09348390415020802</v>
+        <v>0.05585808995391872</v>
       </c>
       <c r="D10">
-        <v>0.5966828657160477</v>
+        <v>0.3392994685858355</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.929411248490879</v>
+        <v>5.315448510380037</v>
       </c>
       <c r="G10">
-        <v>0.0008101564464443329</v>
+        <v>0.00257176691036552</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.320592656210977</v>
+        <v>0.6812212562604145</v>
       </c>
       <c r="L10">
-        <v>0.5853254068675255</v>
+        <v>0.3528064831212703</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.964898993716758</v>
+        <v>1.256051261375774</v>
       </c>
       <c r="C11">
-        <v>0.09866756978221325</v>
+        <v>0.05706334903822352</v>
       </c>
       <c r="D11">
-        <v>0.6314676656989207</v>
+        <v>0.3492397714931315</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.59925562998217</v>
+        <v>5.495734580673457</v>
       </c>
       <c r="G11">
-        <v>0.0008031167005481577</v>
+        <v>0.002568303826367499</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.433710978264457</v>
+        <v>0.6995751408188937</v>
       </c>
       <c r="L11">
-        <v>0.6295306095178148</v>
+        <v>0.3623620269669203</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.021025516667066</v>
+        <v>1.265316927007689</v>
       </c>
       <c r="C12">
-        <v>0.1006765093181929</v>
+        <v>0.05751566594065949</v>
       </c>
       <c r="D12">
-        <v>0.6448087448522131</v>
+        <v>0.3529954368600272</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.85624043188216</v>
+        <v>5.564073222695185</v>
       </c>
       <c r="G12">
-        <v>0.0008004540539050579</v>
+        <v>0.00256701588377231</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.477413923526115</v>
+        <v>0.7066397248354974</v>
       </c>
       <c r="L12">
-        <v>0.6465379843567263</v>
+        <v>0.3660111894781721</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.00888771482812</v>
+        <v>1.263314140251509</v>
       </c>
       <c r="C13">
-        <v>0.1002416386458602</v>
+        <v>0.05741843078622466</v>
       </c>
       <c r="D13">
-        <v>0.6419274771156438</v>
+        <v>0.3521869583503872</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.8007367904882</v>
+        <v>5.549352157419094</v>
       </c>
       <c r="G13">
-        <v>0.0008010274302118564</v>
+        <v>0.002567292224428576</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.467960821797476</v>
+        <v>0.7051131381851974</v>
       </c>
       <c r="L13">
-        <v>0.6428625434437265</v>
+        <v>0.3652239082154267</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.969494300806559</v>
+        <v>1.256810283150344</v>
       </c>
       <c r="C14">
-        <v>0.098831866122989</v>
+        <v>0.05710064247965896</v>
       </c>
       <c r="D14">
-        <v>0.632561675362183</v>
+        <v>0.3495489202904594</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.62032788030632</v>
+        <v>5.501355445220327</v>
       </c>
       <c r="G14">
-        <v>0.0008028976042044889</v>
+        <v>0.002568197397111671</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.437288235801987</v>
+        <v>0.7001540507188793</v>
       </c>
       <c r="L14">
-        <v>0.6309242035586919</v>
+        <v>0.3626616293138198</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.945508007382216</v>
+        <v>1.252847725106164</v>
       </c>
       <c r="C15">
-        <v>0.09797463059828537</v>
+        <v>0.05690546008989017</v>
       </c>
       <c r="D15">
-        <v>0.6268477919393831</v>
+        <v>0.3479319510060179</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.51027287217585</v>
+        <v>5.471965109772725</v>
       </c>
       <c r="G15">
-        <v>0.0008040434255734962</v>
+        <v>0.002568754891825132</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.418617604592981</v>
+        <v>0.697131389350119</v>
       </c>
       <c r="L15">
-        <v>0.6236477667885936</v>
+        <v>0.3610961632453922</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.810124000868228</v>
+        <v>1.230464809116427</v>
       </c>
       <c r="C16">
-        <v>0.09315103853113094</v>
+        <v>0.05577874292265861</v>
       </c>
       <c r="D16">
-        <v>0.594431510798529</v>
+        <v>0.3386486303008667</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.886070562555858</v>
+        <v>5.303675659074742</v>
       </c>
       <c r="G16">
-        <v>0.0008106171752208225</v>
+        <v>0.002571996520331701</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.313313902431446</v>
+        <v>0.6800377375629125</v>
       </c>
       <c r="L16">
-        <v>0.5824717061537541</v>
+        <v>0.352186285959732</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.728790296400263</v>
+        <v>1.217022795773801</v>
       </c>
       <c r="C17">
-        <v>0.09026349269982781</v>
+        <v>0.05508009171045458</v>
       </c>
       <c r="D17">
-        <v>0.5748128222859634</v>
+        <v>0.3329379621096109</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.508480389984015</v>
+        <v>5.200551569176781</v>
       </c>
       <c r="G17">
-        <v>0.0008146598922032162</v>
+        <v>0.002574027073649398</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.250112030402931</v>
+        <v>0.6697539969723607</v>
       </c>
       <c r="L17">
-        <v>0.5576448285198126</v>
+        <v>0.3467747475786638</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.682593098923803</v>
+        <v>1.209397289613889</v>
       </c>
       <c r="C18">
-        <v>0.08862606653852012</v>
+        <v>0.05467546014576463</v>
       </c>
       <c r="D18">
-        <v>0.56361772120718</v>
+        <v>0.329647437752314</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.293095389081884</v>
+        <v>5.141278330624118</v>
       </c>
       <c r="G18">
-        <v>0.0008169900233535126</v>
+        <v>0.002575210443737745</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.2142328404571</v>
+        <v>0.6639132295880188</v>
       </c>
       <c r="L18">
-        <v>0.5435120000728944</v>
+        <v>0.3436820784622938</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.667047444420348</v>
+        <v>1.206833600075214</v>
       </c>
       <c r="C19">
-        <v>0.08807542499302734</v>
+        <v>0.05453797572101138</v>
       </c>
       <c r="D19">
-        <v>0.5598417068896993</v>
+        <v>0.3285322956595564</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.220462967888011</v>
+        <v>5.121216320003157</v>
       </c>
       <c r="G19">
-        <v>0.0008177799116206686</v>
+        <v>0.002575613770389768</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.202162282053052</v>
+        <v>0.6619483554855208</v>
       </c>
       <c r="L19">
-        <v>0.5387509947874349</v>
+        <v>0.342638364872343</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.737386940118085</v>
+        <v>1.218442745605699</v>
       </c>
       <c r="C20">
-        <v>0.09056839125884864</v>
+        <v>0.05515475154378358</v>
       </c>
       <c r="D20">
-        <v>0.5768918466233401</v>
+        <v>0.3335464797053476</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.548486124665686</v>
+        <v>5.21152502348798</v>
       </c>
       <c r="G20">
-        <v>0.0008142290608820082</v>
+        <v>0.002573809319509522</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.256790148339746</v>
+        <v>0.6708410356600325</v>
       </c>
       <c r="L20">
-        <v>0.560272217778305</v>
+        <v>0.3473487532120316</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.981034927036148</v>
+        <v>1.258716195128727</v>
       </c>
       <c r="C21">
-        <v>0.09924462076377161</v>
+        <v>0.05719409434223088</v>
       </c>
       <c r="D21">
-        <v>0.6353077984445292</v>
+        <v>0.3503240033491295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.67322337417937</v>
+        <v>5.515451350629007</v>
       </c>
       <c r="G21">
-        <v>0.0008023482368536032</v>
+        <v>0.002567930890687457</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.4462728273067</v>
+        <v>0.7016075432456716</v>
       </c>
       <c r="L21">
-        <v>0.6344231733011299</v>
+        <v>0.3634133979029031</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.146553741108391</v>
+        <v>1.285987193060691</v>
       </c>
       <c r="C22">
-        <v>0.1051886031697666</v>
+        <v>0.05850316362804975</v>
       </c>
       <c r="D22">
-        <v>0.6744870670350451</v>
+        <v>0.3612396877876733</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.42801436190092</v>
+        <v>5.714484827672891</v>
       </c>
       <c r="G22">
-        <v>0.0007945995836883846</v>
+        <v>0.002564225630512257</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.575243282353654</v>
+        <v>0.7223823122730266</v>
       </c>
       <c r="L22">
-        <v>0.684468730626989</v>
+        <v>0.3740915513378269</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.057581296299247</v>
+        <v>1.271344920939612</v>
       </c>
       <c r="C23">
-        <v>0.1019876848317693</v>
+        <v>0.05780661165623791</v>
       </c>
       <c r="D23">
-        <v>0.6534737920408134</v>
+        <v>0.3554181491066686</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.02316827152737</v>
+        <v>5.608218608572713</v>
       </c>
       <c r="G23">
-        <v>0.0007987351410464037</v>
+        <v>0.002566190741338183</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.505890847699561</v>
+        <v>0.711233064652788</v>
       </c>
       <c r="L23">
-        <v>0.657599053982139</v>
+        <v>0.3683759583305601</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.733498656380107</v>
+        <v>1.217800467132207</v>
       </c>
       <c r="C24">
-        <v>0.09043047671073801</v>
+        <v>0.05512100708867429</v>
       </c>
       <c r="D24">
-        <v>0.5759516604417456</v>
+        <v>0.3332713919371599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.530394286654939</v>
+        <v>5.206563881027591</v>
       </c>
       <c r="G24">
-        <v>0.00081442382083594</v>
+        <v>0.002573907716483699</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.253769559279903</v>
+        <v>0.6703493628602928</v>
       </c>
       <c r="L24">
-        <v>0.5590839404415533</v>
+        <v>0.3470891876720685</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.405795781330937</v>
+        <v>1.164092370877199</v>
       </c>
       <c r="C25">
-        <v>0.07883352399273136</v>
+        <v>0.05211701873201946</v>
       </c>
       <c r="D25">
-        <v>0.4956483586885696</v>
+        <v>0.3091550793943156</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.987250311009007</v>
+        <v>4.774860452769275</v>
       </c>
       <c r="G25">
-        <v>0.000831544148921911</v>
+        <v>0.00258282298352518</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.999516122347643</v>
+        <v>0.6290813242991931</v>
       </c>
       <c r="L25">
-        <v>0.4583218924825161</v>
+        <v>0.3248878771079546</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_127/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.127984771727</v>
+        <v>1.17854018929205</v>
       </c>
       <c r="C2">
-        <v>0.04980699389891363</v>
+        <v>0.07076248064008084</v>
       </c>
       <c r="D2">
-        <v>0.2911817816964231</v>
+        <v>0.4384427677515674</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.45806596794165</v>
+        <v>6.892028083270503</v>
       </c>
       <c r="G2">
-        <v>0.002589902121757248</v>
+        <v>0.000844442134499796</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6010874286359638</v>
+        <v>0.8234806014994263</v>
       </c>
       <c r="L2">
-        <v>0.3091811955591197</v>
+        <v>0.3876368376768937</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.105637921368839</v>
+        <v>1.031299091204033</v>
       </c>
       <c r="C3">
-        <v>0.04817719131482612</v>
+        <v>0.06547077082174191</v>
       </c>
       <c r="D3">
-        <v>0.2788557442090536</v>
+        <v>0.400482664835323</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.243910909428536</v>
+        <v>6.168382009560872</v>
       </c>
       <c r="G3">
-        <v>0.002595024083569865</v>
+        <v>0.0008534169644061174</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5835867568609387</v>
+        <v>0.7094750929550173</v>
       </c>
       <c r="L3">
-        <v>0.2989295393117857</v>
+        <v>0.3414082971270034</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.092958261286469</v>
+        <v>0.9436699021575237</v>
       </c>
       <c r="C4">
-        <v>0.04714379238185806</v>
+        <v>0.06227763026300437</v>
       </c>
       <c r="D4">
-        <v>0.271212546193766</v>
+        <v>0.3774620310664147</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.112646583209823</v>
+        <v>5.731237706226324</v>
       </c>
       <c r="G4">
-        <v>0.002598330026326999</v>
+        <v>0.0008590576085458445</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5735605423628556</v>
+        <v>0.6416129425661552</v>
       </c>
       <c r="L4">
-        <v>0.2928269107341208</v>
+        <v>0.313704079754487</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.088052373903707</v>
+        <v>0.9085836270160712</v>
       </c>
       <c r="C5">
-        <v>0.04671431055510489</v>
+        <v>0.06098624931697394</v>
       </c>
       <c r="D5">
-        <v>0.2680785989382741</v>
+        <v>0.3681381115316356</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.05920795327873</v>
+        <v>5.554635915194041</v>
       </c>
       <c r="G5">
-        <v>0.00259971786468651</v>
+        <v>0.0008613909017660984</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5696548602924736</v>
+        <v>0.6144329030020401</v>
       </c>
       <c r="L5">
-        <v>0.2903880932124991</v>
+        <v>0.3025659311274893</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.087253509698826</v>
+        <v>0.9027931574897252</v>
       </c>
       <c r="C6">
-        <v>0.04664248614516531</v>
+        <v>0.0607722955205432</v>
       </c>
       <c r="D6">
-        <v>0.2675570321820686</v>
+        <v>0.36659292029141</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.050337555286717</v>
+        <v>5.525396850127208</v>
       </c>
       <c r="G6">
-        <v>0.002599950772706876</v>
+        <v>0.0008617804929931726</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5690171786308866</v>
+        <v>0.6099465878849912</v>
       </c>
       <c r="L6">
-        <v>0.2899860256921727</v>
+        <v>0.3007250642315142</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.092891042187517</v>
+        <v>0.9431942868788781</v>
       </c>
       <c r="C7">
-        <v>0.04713803428897378</v>
+        <v>0.06226017965824582</v>
       </c>
       <c r="D7">
-        <v>0.2711703593208483</v>
+        <v>0.3773360728376076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.111925684085065</v>
+        <v>5.728850101154734</v>
       </c>
       <c r="G7">
-        <v>0.002598348578574296</v>
+        <v>0.0008590889331732572</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5735071408580978</v>
+        <v>0.6412445418238377</v>
       </c>
       <c r="L7">
-        <v>0.2927938256933658</v>
+        <v>0.3135532777586434</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.120063003219741</v>
+        <v>1.127147589368633</v>
       </c>
       <c r="C8">
-        <v>0.04925173755937351</v>
+        <v>0.06892359704612083</v>
       </c>
       <c r="D8">
-        <v>0.2869470587896075</v>
+        <v>0.4252851095203596</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.384175181173532</v>
+        <v>6.640857160849151</v>
       </c>
       <c r="G8">
-        <v>0.002591634838933902</v>
+        <v>0.0008475109069962986</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5949034281077843</v>
+        <v>0.783687884271643</v>
       </c>
       <c r="L8">
-        <v>0.305606458545725</v>
+        <v>0.3715437327727358</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.181647220773357</v>
+        <v>1.513713186974684</v>
       </c>
       <c r="C9">
-        <v>0.05314376850875036</v>
+        <v>0.08265048873021996</v>
       </c>
       <c r="D9">
-        <v>0.317310960935842</v>
+        <v>0.5223433366234786</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.920097657918774</v>
+        <v>8.499676204031601</v>
       </c>
       <c r="G9">
-        <v>0.002579740305245792</v>
+        <v>0.0008257392036521438</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6426081858520831</v>
+        <v>1.083180971093611</v>
       </c>
       <c r="L9">
-        <v>0.3322661313813597</v>
+        <v>0.4916444531313431</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.232013018401034</v>
+        <v>1.819487266158973</v>
       </c>
       <c r="C10">
-        <v>0.05585808995391872</v>
+        <v>0.09348390414979058</v>
       </c>
       <c r="D10">
-        <v>0.3392994685858355</v>
+        <v>0.596682865715934</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5.315448510380037</v>
+        <v>9.929411248490851</v>
       </c>
       <c r="G10">
-        <v>0.00257176691036552</v>
+        <v>0.0008101564463327354</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6812212562604145</v>
+        <v>1.320592656210977</v>
       </c>
       <c r="L10">
-        <v>0.3528064831212703</v>
+        <v>0.5853254068673408</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.256051261375774</v>
+        <v>1.964898993716702</v>
       </c>
       <c r="C11">
-        <v>0.05706334903822352</v>
+        <v>0.09866756978219193</v>
       </c>
       <c r="D11">
-        <v>0.3492397714931315</v>
+        <v>0.6314676656990912</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.495734580673457</v>
+        <v>10.59925562998222</v>
       </c>
       <c r="G11">
-        <v>0.002568303826367499</v>
+        <v>0.000803116700418908</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6995751408188937</v>
+        <v>1.433710978264401</v>
       </c>
       <c r="L11">
-        <v>0.3623620269669203</v>
+        <v>0.6295306095175164</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.265316927007689</v>
+        <v>2.021025516667294</v>
       </c>
       <c r="C12">
-        <v>0.05751566594065949</v>
+        <v>0.1006765093187312</v>
       </c>
       <c r="D12">
-        <v>0.3529954368600272</v>
+        <v>0.6448087448519573</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.564073222695185</v>
+        <v>10.8562404318821</v>
       </c>
       <c r="G12">
-        <v>0.00256701588377231</v>
+        <v>0.0008004540540225051</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7066397248354974</v>
+        <v>1.477413923525972</v>
       </c>
       <c r="L12">
-        <v>0.3660111894781721</v>
+        <v>0.6465379843568257</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.263314140251509</v>
+        <v>2.008887714827722</v>
       </c>
       <c r="C13">
-        <v>0.05741843078622466</v>
+        <v>0.1002416386450093</v>
       </c>
       <c r="D13">
-        <v>0.3521869583503872</v>
+        <v>0.6419274771157291</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.549352157419094</v>
+        <v>10.80073679048797</v>
       </c>
       <c r="G13">
-        <v>0.002567292224428576</v>
+        <v>0.0008010274302231524</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7051131381851974</v>
+        <v>1.467960821797732</v>
       </c>
       <c r="L13">
-        <v>0.3652239082154267</v>
+        <v>0.6428625434438402</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.256810283150344</v>
+        <v>1.969494300806559</v>
       </c>
       <c r="C14">
-        <v>0.05710064247965896</v>
+        <v>0.09883186612251293</v>
       </c>
       <c r="D14">
-        <v>0.3495489202904594</v>
+        <v>0.6325616753622683</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.501355445220327</v>
+        <v>10.62032788030626</v>
       </c>
       <c r="G14">
-        <v>0.002568197397111671</v>
+        <v>0.0008028976041002661</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7001540507188793</v>
+        <v>1.437288235801759</v>
       </c>
       <c r="L14">
-        <v>0.3626616293138198</v>
+        <v>0.6309242035587914</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.252847725106164</v>
+        <v>1.945508007382671</v>
       </c>
       <c r="C15">
-        <v>0.05690546008989017</v>
+        <v>0.09797463059777378</v>
       </c>
       <c r="D15">
-        <v>0.3479319510060179</v>
+        <v>0.6268477919398379</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.471965109772725</v>
+        <v>10.51027287217585</v>
       </c>
       <c r="G15">
-        <v>0.002568754891825132</v>
+        <v>0.0008040434254453781</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.697131389350119</v>
+        <v>1.418617604593067</v>
       </c>
       <c r="L15">
-        <v>0.3610961632453922</v>
+        <v>0.623647766788082</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.230464809116427</v>
+        <v>1.8101240008682</v>
       </c>
       <c r="C16">
-        <v>0.05577874292265861</v>
+        <v>0.09315103853159989</v>
       </c>
       <c r="D16">
-        <v>0.3386486303008667</v>
+        <v>0.5944315107989553</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5.303675659074742</v>
+        <v>9.886070562555915</v>
       </c>
       <c r="G16">
-        <v>0.002571996520331701</v>
+        <v>0.0008106171753365921</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6800377375629125</v>
+        <v>1.313313902431503</v>
       </c>
       <c r="L16">
-        <v>0.352186285959732</v>
+        <v>0.5824717061539104</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.217022795773801</v>
+        <v>1.728790296400206</v>
       </c>
       <c r="C17">
-        <v>0.05508009171045458</v>
+        <v>0.0902634927007373</v>
       </c>
       <c r="D17">
-        <v>0.3329379621096109</v>
+        <v>0.5748128222861624</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.200551569176781</v>
+        <v>9.508480389984101</v>
       </c>
       <c r="G17">
-        <v>0.002574027073649398</v>
+        <v>0.0008146598923169247</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6697539969723607</v>
+        <v>1.250112030403102</v>
       </c>
       <c r="L17">
-        <v>0.3467747475786638</v>
+        <v>0.5576448285197273</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.209397289613889</v>
+        <v>1.682593098923689</v>
       </c>
       <c r="C18">
-        <v>0.05467546014576463</v>
+        <v>0.08862606653859295</v>
       </c>
       <c r="D18">
-        <v>0.329647437752314</v>
+        <v>0.5636177212072653</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.141278330624118</v>
+        <v>9.293095389081685</v>
       </c>
       <c r="G18">
-        <v>0.002575210443737745</v>
+        <v>0.0008169900233769109</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6639132295880188</v>
+        <v>1.214232840456873</v>
       </c>
       <c r="L18">
-        <v>0.3436820784622938</v>
+        <v>0.5435120000728801</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.206833600075214</v>
+        <v>1.667047444420547</v>
       </c>
       <c r="C19">
-        <v>0.05453797572101138</v>
+        <v>0.08807542499302556</v>
       </c>
       <c r="D19">
-        <v>0.3285322956595564</v>
+        <v>0.5598417068895003</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.121216320003157</v>
+        <v>9.220462967888039</v>
       </c>
       <c r="G19">
-        <v>0.002575613770389768</v>
+        <v>0.0008177799116187056</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6619483554855208</v>
+        <v>1.20216228205291</v>
       </c>
       <c r="L19">
-        <v>0.342638364872343</v>
+        <v>0.5387509947874491</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.218442745605699</v>
+        <v>1.737386940117801</v>
       </c>
       <c r="C20">
-        <v>0.05515475154378358</v>
+        <v>0.09056839125833349</v>
       </c>
       <c r="D20">
-        <v>0.3335464797053476</v>
+        <v>0.5768918466235107</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5.21152502348798</v>
+        <v>9.548486124665743</v>
       </c>
       <c r="G20">
-        <v>0.002573809319509522</v>
+        <v>0.0008142290607570451</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6708410356600325</v>
+        <v>1.256790148339974</v>
       </c>
       <c r="L20">
-        <v>0.3473487532120316</v>
+        <v>0.5602722177783193</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.258716195128727</v>
+        <v>1.981034927036205</v>
       </c>
       <c r="C21">
-        <v>0.05719409434223088</v>
+        <v>0.09924462076328666</v>
       </c>
       <c r="D21">
-        <v>0.3503240033491295</v>
+        <v>0.6353077984450124</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.515451350629007</v>
+        <v>10.67322337417937</v>
       </c>
       <c r="G21">
-        <v>0.002567930890687457</v>
+        <v>0.0008023482369841038</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7016075432456716</v>
+        <v>1.446272827306416</v>
       </c>
       <c r="L21">
-        <v>0.3634133979029031</v>
+        <v>0.6344231733010872</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.285987193060691</v>
+        <v>2.146553741108448</v>
       </c>
       <c r="C22">
-        <v>0.05850316362804975</v>
+        <v>0.1051886031691378</v>
       </c>
       <c r="D22">
-        <v>0.3612396877876733</v>
+        <v>0.674487067034903</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.714484827672891</v>
+        <v>11.42801436190098</v>
       </c>
       <c r="G22">
-        <v>0.002564225630512257</v>
+        <v>0.000794599583797286</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7223823122730266</v>
+        <v>1.575243282353568</v>
       </c>
       <c r="L22">
-        <v>0.3740915513378269</v>
+        <v>0.6844687306272874</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.271344920939612</v>
+        <v>2.057581296299361</v>
       </c>
       <c r="C23">
-        <v>0.05780661165623791</v>
+        <v>0.1019876848322152</v>
       </c>
       <c r="D23">
-        <v>0.3554181491066686</v>
+        <v>0.6534737920407565</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.608218608572713</v>
+        <v>11.02316827152748</v>
       </c>
       <c r="G23">
-        <v>0.002566190741338183</v>
+        <v>0.0007987351410287623</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.711233064652788</v>
+        <v>1.505890847699646</v>
       </c>
       <c r="L23">
-        <v>0.3683759583305601</v>
+        <v>0.6575990539821248</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.217800467132207</v>
+        <v>1.733498656379851</v>
       </c>
       <c r="C24">
-        <v>0.05512100708867429</v>
+        <v>0.09043047671022286</v>
       </c>
       <c r="D24">
-        <v>0.3332713919371599</v>
+        <v>0.5759516604417172</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.206563881027591</v>
+        <v>9.530394286655053</v>
       </c>
       <c r="G24">
-        <v>0.002573907716483699</v>
+        <v>0.000814423821174957</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6703493628602928</v>
+        <v>1.253769559279903</v>
       </c>
       <c r="L24">
-        <v>0.3470891876720685</v>
+        <v>0.5590839404416812</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.164092370877199</v>
+        <v>1.405795781330966</v>
       </c>
       <c r="C25">
-        <v>0.05211701873201946</v>
+        <v>0.07883352399317367</v>
       </c>
       <c r="D25">
-        <v>0.3091550793943156</v>
+        <v>0.4956483586880864</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.774860452769275</v>
+        <v>7.987250311008978</v>
       </c>
       <c r="G25">
-        <v>0.00258282298352518</v>
+        <v>0.0008315441490343129</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6290813242991931</v>
+        <v>0.9995161223479272</v>
       </c>
       <c r="L25">
-        <v>0.3248878771079546</v>
+        <v>0.4583218924824735</v>
       </c>
       <c r="M25">
         <v>0</v>
